--- a/aqs_bot/parts_extraction/input/26VSMTC-0012-ST=13.xlsx
+++ b/aqs_bot/parts_extraction/input/26VSMTC-0012-ST=13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Ho\Documents\GitHub\fyp\aqs_bot\parts_extraction\input\rfq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Ho\Documents\GitHub\fyp\aqs_bot\parts_extraction\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CA20C-8870-4ABB-A055-B3245C3946B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E67CD-3549-4F39-90AA-78A054BE90E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="1665" windowWidth="20325" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="780" windowWidth="20325" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26VSMTC-0012-ST=14" sheetId="1" r:id="rId1"/>
@@ -149,22 +149,22 @@
     <t>Price</t>
   </si>
   <si>
-    <t>BEBAS1</t>
-  </si>
-  <si>
-    <t>Independent item 1</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>BEBAS0</t>
-  </si>
-  <si>
-    <t>Independent item 0</t>
-  </si>
-  <si>
     <t>...3</t>
+  </si>
+  <si>
+    <t>LOOSE1</t>
+  </si>
+  <si>
+    <t>Loose Item 1</t>
+  </si>
+  <si>
+    <t>LOOSE2</t>
+  </si>
+  <si>
+    <t>Loose Item 2</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -1216,10 +1216,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1333,7 +1333,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -1464,10 +1464,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
